--- a/Output/Classifier Fitting/XGBoost/All_Data Training Statistics.xlsx
+++ b/Output/Classifier Fitting/XGBoost/All_Data Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47.61971420049667</v>
+        <v>234.5295533180237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00793265270706258</v>
+        <v>0.03906872452407524</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8189224257563141</v>
+        <v>0.9093798223702472</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Fitting/XGBoost/All_Data Training Statistics.xlsx
+++ b/Output/Classifier Fitting/XGBoost/All_Data Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>234.5295533180237</v>
+        <v>306.3145143946012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03906872452407524</v>
+        <v>0.05102690561296039</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9093798223702472</v>
+        <v>0.9085460727171804</v>
       </c>
     </row>
   </sheetData>
